--- a/RegisteredProviders.xlsx
+++ b/RegisteredProviders.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NmrRegisterProvider" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="407">
   <si>
     <t> </t>
-  </si>
-  <si>
-    <t>Driver Name</t>
-  </si>
-  <si>
-    <t>Driver Functions</t>
   </si>
   <si>
     <t>NPIID GUID Symbol Name</t>
@@ -2072,13 +2066,478 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Driver caller function</t>
+  </si>
+  <si>
+    <t>ProviderAttachClient
+ProviderDetachClient
+ProviderCleanupBindingContext</t>
+  </si>
+  <si>
+    <t>NETIO!NsipStartNmClient</t>
+  </si>
+  <si>
+    <t>NETIO!NsiAttachNmProvider
+NETIO!NsiDetachNmProvider
+NETIO!NsiCleanupProviderContext</t>
+  </si>
+  <si>
+    <t>2227e806-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>eb004a05-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t>NETIO!QoScStartModule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETIO!AttachQoSProvider
+NETIO!DetachQoSProvider
+NETIO!CleanupQoSProvider
+</t>
+  </si>
+  <si>
+    <t>NPI_MS_NETIO_MODULEID</t>
+  </si>
+  <si>
+    <t>2227e80b-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>eb004a1a-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t>NDIS!DriverEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDIS!ndisVBusNmrClientAttachProvider
+NDIS!ndisVBusNmrClientDetachProvider
+NDIS!NetDmaDeregisterProvider
+</t>
+  </si>
+  <si>
+    <t>2227e811-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>eb004a11-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t>NDIS!ndisMpHookNmrInitializeClient</t>
+  </si>
+  <si>
+    <t>NDIS!ndisMpHookNmrClientAttachProvider
+NDIS!ndisMpHookNmrClientDetachProvider
+0</t>
+  </si>
+  <si>
+    <t>NPI_NDIS_MINIPORT_HOOK_ID</t>
+  </si>
+  <si>
+    <t>2227e813-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>tcpip!EQoSStartModules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!EQoSAttachQoSProvider
+tcpip!EQoSDetachQoSProvider
+tcpip!EQoSCleanupBindingContext
+</t>
+  </si>
+  <si>
+    <t>eb004a1d-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t>tcpip!EQoSHkeClientInitialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQoSHkeClientNotifyAttachProvider
+EQoSHkeClientNotifyDetachProvider
+EQoSHkeClientNotifyCleanupProviderContext
+</t>
+  </si>
+  <si>
+    <t>tcpip!OlmBindRss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!OlmAttachRssControlProvider
+tcpip!OlmDetachRssControlProvider
+tcpip!Fl4lCleanup
+</t>
+  </si>
+  <si>
+    <t>2227e80d-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>eb004a03-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!OlmAttachRssHashProvider
+tcpip!OlmDetachRssHashProvider
+tcpip!Fl4lCleanup
+</t>
+  </si>
+  <si>
+    <t>2227e80f-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>tcpip!TcpStartCcmClientModule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!TcpAttachCcmProvider
+tcpip!TcpDetachCcmProvider
+tcpip!CTcpCleanupClientContext
+</t>
+  </si>
+  <si>
+    <t>2227e80c-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>tcpip!InetStartQoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!InetAttachQoSProvider
+tcpip!InetDetachQoSProvider
+tcpip!CTcpCleanupClientContext
+</t>
+  </si>
+  <si>
+    <t>tcpip!InetStartNlClientTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InetNlNotifyAttachProvider
+InetNlNotifyDetachProvider
+CTcpCleanupClientContext
+</t>
+  </si>
+  <si>
+    <t>2227e802-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>tcpip!UdpStartHashModule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!UdpAttachRssHashProvider
+tcpip!UdpDetachRssHashrovider
+tcpip!Fl4lCleanup
+</t>
+  </si>
+  <si>
+    <t>eb004a02-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!InetNlNotifyAttachProvider
+tcpip!InetNlNotifyDetachProvider
+tcpip!CTcpCleanupClientContext
+</t>
+  </si>
+  <si>
+    <t>eb004a07-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tcpip!WfpRegisterNlClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpip!WfpNlcAttachNlProvider
+tcpip!WfpNlcDetachNlProvider
+tcpip!WfpNlcCleanupNlProviderContext
+</t>
+  </si>
+  <si>
+    <t>gIPSecNlTaskOffloadClientInfo</t>
+  </si>
+  <si>
+    <t>2b21ef59-5b43-4f2f-8d93-e307e5ef85fb</t>
+  </si>
+  <si>
+    <t>tcpip!WfpRegisterNlClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WfpNlcAttachNlProvider
+WfpNlcDetachNlProvider
+WfpNlcCleanupNlProviderContext
+</t>
+  </si>
+  <si>
+    <t>gIPSecNPIClientInfo</t>
+  </si>
+  <si>
+    <t>c30adb5b-eaf4-4c2b-bceb-2b646f75be3b</t>
+  </si>
+  <si>
+    <t>tcpip!IppStartRssClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IpAttachRssActivityProvider
+FllAddGroup
+Fl4lCleanup
+</t>
+  </si>
+  <si>
+    <t>2227e80e-8d8b-11d4-abad-009027719e0</t>
+  </si>
+  <si>
+    <t>eb004a00-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IpAttachRssHashProvider
+IpDetachRssHashrovider
+Fl4lCleanup
+</t>
+  </si>
+  <si>
+    <t>tcpip!IppStartFlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipv4AttachFlProvider
+IpDetachFlProvider
+IpCleanupFlProviderContext
+</t>
+  </si>
+  <si>
+    <t>2227e801-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipv6AttachFlProvider
+IpDetachFlProvider
+IpCleanupFlProviderContext
+</t>
+  </si>
+  <si>
+    <t>eb004a01-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TdxTlNotifyAttachProvider
+TdxTlNotifyDetachProvider
+TdxNsiNotifyCleanupClientContext
+</t>
+  </si>
+  <si>
+    <t>2227e804-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>eb004a04-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t>tdx!TdxInitializeNaClientModule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TdxNaNotifyAttachProvider
+TdxNaNotifyDetachProvider
+TdxNaNotifyCleanupProviderContext
+</t>
+  </si>
+  <si>
+    <t>2227e807-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TdxPnpEventNotifyAttachProvider
+TdxPnpEventNotifyDetachProvider
+TdxNaNotifyCleanupProviderContext
+</t>
+  </si>
+  <si>
+    <t>2227e808-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>afd!AfdTlStartClientModule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AfdTlNotifyAttachProvider
+AfdTlNotifyDetachProvider
+AfdTlNotifyCleanupProviderContext
+</t>
+  </si>
+  <si>
+    <t>eb004a0d-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t>Wnv!WnvDriverEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WnvNlNotifyAttachProvider
+WnvNlNotifyDetachProvider
+IpCleanupRssActivityBindingContext
+</t>
+  </si>
+  <si>
+    <t>5fec0340-2ef9-4346-ac0a-82321625db86</t>
+  </si>
+  <si>
+    <t>87058b2d-3bd2-4020-84b5-3b14a7ba2a8d</t>
+  </si>
+  <si>
+    <t>WNV_NLC6_MOD_ID</t>
+  </si>
+  <si>
+    <t>d84dd455-3c84-45a9-80ee-f9d785b8d6da</t>
+  </si>
+  <si>
+    <t>Wnv!IppStartRssClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IpAttachRssActivityProvider
+IpDetachRssActivityProvider
+IpCleanupRssActivityBindingContext
+</t>
+  </si>
+  <si>
+    <t>2227e80e-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IpAttachRssHashProvider
+IpDetachRssHashrovider
+IpCleanupRssActivityBindingContext
+</t>
+  </si>
+  <si>
+    <t>Wnv!IppStartFlc</t>
+  </si>
+  <si>
+    <t>7919ee7a-52a2-46b9-9eb1-dfc80365f8e2</t>
+  </si>
+  <si>
+    <t>768f37a5-e299-4280-b853-c572a68745f3</t>
+  </si>
+  <si>
+    <t>01bdc3ad-ae7a-4974-9824-e71ba1c57723</t>
+  </si>
+  <si>
+    <t>vmswitch!VmsOmSwitchCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PktCapAttachProvider
+PktCapDetachProvider
+PktCapCleanupBindingContext
+</t>
+  </si>
+  <si>
+    <t>NPI_PKTCAP_INTERFACE_ID</t>
+  </si>
+  <si>
+    <t>PktCapClientNpiModuleId</t>
+  </si>
+  <si>
+    <t>2227e814-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>39869496-0002-4abf-8328-8a84a9ac9a0e</t>
+  </si>
+  <si>
+    <t>mrxsmb!SmbWskProviderInitialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmbWskNotifyAttachProvider
+MRxSmbInitializeRemoteBootParameters
+SmbWskNotifyCleanupProviderContext
+</t>
+  </si>
+  <si>
+    <t>SmbWskNpiModuleId</t>
+  </si>
+  <si>
+    <t>2227e803-8d8b-11d4-abad-009027719e09</t>
+  </si>
+  <si>
+    <t>69e30680-3577-11dc-8479-000ffe8a1193</t>
+  </si>
+  <si>
+    <t>HTTP!UxWskStartModule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UxWskNotifyAttachProvider
+UxWskClientEvent
+UlFreeFromLookaside
+</t>
+  </si>
+  <si>
+    <t>UxNpiModuleId</t>
+  </si>
+  <si>
+    <t>878aa6b3-af4c-4647-a3c6-848240a36e91</t>
+  </si>
+  <si>
+    <t>HTTP!DriverEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UxpWskQosNotifyAttachProvider
+UxpWskQosNotifyDetachProvider
+UxDuoHpackFreePairs
+</t>
+  </si>
+  <si>
+    <t>UxWskQosNpiModuleId</t>
+  </si>
+  <si>
+    <t>6c4eea4e-0d9a-4361-99ec-0b33965d9797</t>
+  </si>
+  <si>
+    <t>NETIO!WskRegister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WsklibNmrCallbackAttachProvider
+WsklibNmrCallbackDetachProvider
+WsklibNmrCallbackCleanupProviderContext
+</t>
+  </si>
+  <si>
+    <t>WSKLIB_WSK_CLIENT_MODULEID</t>
+  </si>
+  <si>
+    <t>47c6ccf6-99b4-4351-a5d6-b978e62f1cd7</t>
+  </si>
+  <si>
+    <t>tunnel!TunnelNlRegisterNlClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TunnelNlcAttachNlProvider
+TunnelNlcDetachNlProvider
+TunnelNlcCleanupNlProviderContext
+</t>
+  </si>
+  <si>
+    <t>NPI_MS_TUN_MODULEID</t>
+  </si>
+  <si>
+    <t>eb004a10-9b1a-11d4-9123-0050047759bc</t>
+  </si>
+  <si>
+    <t>srvnet!SrvNetWskProviderInitialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrvNetWskNotifyAttachProvider
+SrvNetWskInspectEvent
+SrvLibFreePipeEa
+</t>
+  </si>
+  <si>
+    <t>SrvNetWskNpiModuleId</t>
+  </si>
+  <si>
+    <t>6deb55bf-c888-4231-ad3d-86ef8192e9a5</t>
+  </si>
+  <si>
+    <t>tcpipreg!TcpipRegStartNac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TcpipRegNacAttachNaProvider
+TcpipRegNacDetachNaProvider
+TcpipRegNacCleanupNaProviderContext
+</t>
+  </si>
+  <si>
+    <t>NPI_MS_MAPPING_MODULEID</t>
+  </si>
+  <si>
+    <t>eb004a13-9b1a-11d4-9123-0050047759bc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2107,6 +2566,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2188,7 +2662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2210,6 +2684,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2496,8 +2992,8 @@
   </sheetPr>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,57 +3007,57 @@
     <col min="7" max="7" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -2576,7 +3072,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
@@ -2585,32 +3081,32 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2621,7 +3117,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2630,32 +3126,32 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -2670,7 +3166,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2679,32 +3175,32 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
@@ -2719,7 +3215,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2728,32 +3224,32 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
@@ -2768,7 +3264,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2777,38 +3273,38 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2817,7 +3313,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2826,38 +3322,38 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2866,7 +3362,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2875,32 +3371,32 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>0</v>
@@ -2915,7 +3411,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -2924,32 +3420,32 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>0</v>
@@ -2964,7 +3460,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2973,32 +3469,32 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>0</v>
@@ -3013,7 +3509,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3022,32 +3518,32 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>0</v>
@@ -3062,7 +3558,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3071,32 +3567,32 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>0</v>
@@ -3111,7 +3607,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -3120,32 +3616,32 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>0</v>
@@ -3160,7 +3656,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -3169,32 +3665,32 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>0</v>
@@ -3209,7 +3705,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -3218,32 +3714,32 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>0</v>
@@ -3258,7 +3754,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -3267,32 +3763,32 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>0</v>
@@ -3307,7 +3803,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3316,32 +3812,32 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>0</v>
@@ -3356,7 +3852,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3365,32 +3861,32 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>0</v>
@@ -3405,7 +3901,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -3414,32 +3910,32 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>0</v>
@@ -3454,7 +3950,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3463,38 +3959,38 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3503,7 +3999,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3512,32 +4008,32 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>0</v>
@@ -3552,7 +4048,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3561,32 +4057,32 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>0</v>
@@ -3601,7 +4097,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3610,38 +4106,38 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3650,7 +4146,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3659,32 +4155,32 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>0</v>
@@ -3699,7 +4195,7 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3708,32 +4204,32 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>0</v>
@@ -3748,7 +4244,7 @@
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -3757,32 +4253,32 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>0</v>
@@ -3797,7 +4293,7 @@
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3806,32 +4302,32 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>0</v>
@@ -3846,7 +4342,7 @@
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -3855,32 +4351,32 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>0</v>
@@ -3895,7 +4391,7 @@
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -3904,32 +4400,32 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>0</v>
@@ -3944,7 +4440,7 @@
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -3953,32 +4449,32 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>0</v>
@@ -3993,7 +4489,7 @@
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -4002,32 +4498,32 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>0</v>
@@ -4042,7 +4538,7 @@
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -4051,32 +4547,32 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>0</v>
@@ -4091,7 +4587,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -4100,32 +4596,32 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>0</v>
@@ -4140,7 +4636,7 @@
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -4149,32 +4645,32 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>0</v>
@@ -4189,7 +4685,7 @@
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4198,32 +4694,32 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>0</v>
@@ -4238,7 +4734,7 @@
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -4247,32 +4743,32 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>0</v>
@@ -4287,7 +4783,7 @@
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -4296,32 +4792,32 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>0</v>
@@ -4336,7 +4832,7 @@
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -4345,38 +4841,38 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -4385,7 +4881,7 @@
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -4394,32 +4890,32 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>0</v>
@@ -4434,7 +4930,7 @@
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -4443,32 +4939,32 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>0</v>
@@ -4483,7 +4979,7 @@
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -4492,32 +4988,32 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>0</v>
@@ -4532,7 +5028,7 @@
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -4541,32 +5037,32 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>0</v>
@@ -4581,7 +5077,7 @@
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -4590,32 +5086,32 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>0</v>
@@ -4630,7 +5126,7 @@
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -4639,32 +5135,32 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>0</v>
@@ -4679,7 +5175,7 @@
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
@@ -4688,32 +5184,32 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>0</v>
@@ -4728,7 +5224,7 @@
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
@@ -4737,32 +5233,32 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="F137" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>0</v>
@@ -4777,7 +5273,7 @@
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
@@ -4786,32 +5282,32 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F140" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>0</v>
@@ -4826,7 +5322,7 @@
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>0</v>
@@ -4837,32 +5333,32 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F143" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>0</v>
@@ -4877,7 +5373,7 @@
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
@@ -4886,32 +5382,32 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>0</v>
@@ -4926,7 +5422,7 @@
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -4935,32 +5431,32 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="F149" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>0</v>
@@ -4975,7 +5471,7 @@
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
@@ -4984,32 +5480,32 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="G152" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>0</v>
@@ -5024,7 +5520,7 @@
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
@@ -5033,32 +5529,32 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>0</v>
@@ -5073,7 +5569,7 @@
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
@@ -5082,32 +5578,32 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>0</v>
@@ -5122,7 +5618,7 @@
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
@@ -5131,38 +5627,38 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -5171,7 +5667,7 @@
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -5186,14 +5682,968 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
